--- a/Software Debt_CAS2014/Documentos/Release Dates Drupal.xlsx
+++ b/Software Debt_CAS2014/Documentos/Release Dates Drupal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,6 +38,22 @@
       <sz val="16"/>
       <color rgb="FF394147"/>
       <name val="Cantarell"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,18 +93,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -220,11 +248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099133256"/>
-        <c:axId val="2099137848"/>
+        <c:axId val="2117632120"/>
+        <c:axId val="2117635176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2099133256"/>
+        <c:axId val="2117632120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -234,7 +262,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099137848"/>
+        <c:crossAx val="2117635176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -243,7 +271,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2099137848"/>
+        <c:axId val="2117635176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +281,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099133256"/>
+        <c:crossAx val="2117632120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -594,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -716,12 +744,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>36906</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>36965</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>37149</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>37453</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21">
+      <c r="A5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>38276</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>39097</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>39460</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40548</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>41501</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
